--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D161B4C8-563F-49A9-98B3-B959AB61F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF604011-EC78-4CD9-87CD-80138394321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="StackReplacementYears (2)" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -243,8 +243,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -374,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -382,7 +382,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -823,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341079D9-CD85-48E1-85A0-DFB17399170D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +841,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +889,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D885B2D7-D5C8-4B93-A18D-85C0EE5CD6BC}">
-  <dimension ref="A1:AH974"/>
+  <dimension ref="A1:AH961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1364,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
@@ -1537,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -2171,59 +2206,33 @@
     <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2977,19 +2986,6 @@
     <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="C2:C12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -3002,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBAA89-057F-4D2B-9FD7-B9BCC238CF01}">
-  <dimension ref="A1:AE995"/>
+  <dimension ref="A1:AE985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3151,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -4366,16 +4362,6 @@
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF604011-EC78-4CD9-87CD-80138394321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DB5A56-40C6-4B50-AE11-E92C0DCA7F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="StackReplacementYears (2)" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="EfficiencyDegradationCurves" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -246,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +314,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -355,11 +363,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -385,10 +394,12 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0F46E5B5-78E4-4DBD-83B6-00D2ED744154}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -715,7 +726,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A15" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +837,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,43 +852,29 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>56</v>
-      </c>
+      <c r="A3" s="21"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="A4" s="21"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>60</v>
-      </c>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>62</v>
-      </c>
+      <c r="A9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -889,7 +886,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1131,7 @@
   <dimension ref="A1:AH961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>27</v>
@@ -1572,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>31</v>
@@ -3000,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBAA89-057F-4D2B-9FD7-B9BCC238CF01}">
   <dimension ref="A1:AE985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,10 +3144,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -4375,8 +4372,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4406,15 +4403,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>0.1</v>
       </c>
       <c r="B2" s="12">
         <v>0.60679611650485432</v>
       </c>
-      <c r="C2" s="12">
-        <v>0.61855670103092786</v>
+      <c r="C2" s="23">
+        <v>0.7256999999999999</v>
       </c>
       <c r="D2" s="12">
         <v>0.55928114967614784</v>
@@ -4423,15 +4420,15 @@
         <v>0.54053980603620622</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>0.2</v>
       </c>
       <c r="B3" s="12">
         <v>0.60679611650485432</v>
       </c>
-      <c r="C3" s="12">
-        <v>0.65934065934065933</v>
+      <c r="C3" s="23">
+        <v>0.77359999999999995</v>
       </c>
       <c r="D3" s="12">
         <v>0.60581064958193009</v>
@@ -4440,15 +4437,15 @@
         <v>0.58551011635078953</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>0.3</v>
       </c>
       <c r="B4" s="12">
         <v>0.62240663900414939</v>
       </c>
-      <c r="C4" s="12">
-        <v>0.67796610169491534</v>
+      <c r="C4" s="23">
+        <v>0.78930000000000011</v>
       </c>
       <c r="D4" s="12">
         <v>0.61908830199051113</v>
@@ -4457,15 +4454,15 @@
         <v>0.59834283860811288</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>0.4</v>
       </c>
       <c r="B5" s="12">
         <v>0.62630480167014613</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.67606170253285092</v>
+      <c r="C5" s="23">
+        <v>0.79390000000000005</v>
       </c>
       <c r="D5" s="12">
         <v>0.62293775952304553</v>
@@ -4474,15 +4471,15 @@
         <v>0.60206330197289049</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>0.5</v>
       </c>
       <c r="B6" s="12">
         <v>0.62630480167014613</v>
       </c>
-      <c r="C6" s="12">
-        <v>0.6741573033707865</v>
+      <c r="C6" s="23">
+        <v>0.78930000000000011</v>
       </c>
       <c r="D6" s="12">
         <v>0.62298155218196816</v>
@@ -4491,15 +4488,15 @@
         <v>0.60210562715294269</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>0.6</v>
       </c>
       <c r="B7" s="12">
         <v>0.62370062370062374</v>
       </c>
-      <c r="C7" s="12">
-        <v>0.66372584269662915</v>
+      <c r="C7" s="23">
+        <v>0.77839999999999998</v>
       </c>
       <c r="D7" s="12">
         <v>0.62117713407160613</v>
@@ -4508,15 +4505,15 @@
         <v>0.6003616745524516</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>0.7</v>
       </c>
       <c r="B8" s="12">
         <v>0.6211180124223602</v>
       </c>
-      <c r="C8" s="12">
-        <v>0.65329438202247181</v>
+      <c r="C8" s="23">
+        <v>0.76659999999999995</v>
       </c>
       <c r="D8" s="12">
         <v>0.6183911523205502</v>
@@ -4525,15 +4522,15 @@
         <v>0.59766905021457051</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>0.8</v>
       </c>
       <c r="B9" s="12">
         <v>0.61855670103092786</v>
       </c>
-      <c r="C9" s="12">
-        <v>0.64286292134831446</v>
+      <c r="C9" s="23">
+        <v>0.75450000000000006</v>
       </c>
       <c r="D9" s="12">
         <v>0.61506355054400919</v>
@@ -4542,15 +4539,15 @@
         <v>0.59445295537586773</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>0.9</v>
       </c>
       <c r="B10" s="12">
         <v>0.61475409836065575</v>
       </c>
-      <c r="C10" s="12">
-        <v>0.63243146067415712</v>
+      <c r="C10" s="23">
+        <v>0.74219999999999997</v>
       </c>
       <c r="D10" s="12">
         <v>0.61143933857275135</v>
@@ -4559,15 +4556,15 @@
         <v>0.59095018966114232</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" s="12">
         <v>0.61099796334012213</v>
       </c>
-      <c r="C11" s="12">
-        <v>0.622</v>
+      <c r="C11" s="23">
+        <v>0.73019999999999996</v>
       </c>
       <c r="D11" s="12">
         <v>0.60766423357664234</v>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C287EF-0EA3-47B3-96D7-E8A8FA3380D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1ED62-1CE4-40D7-89FC-603DED9B052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -10553,8 +10553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBA260-5F35-4402-8789-C2ABB030CA84}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
@@ -10631,7 +10631,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="54">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.2" customHeight="1">
@@ -10946,10 +10946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341079D9-CD85-48E1-85A0-DFB17399170D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10965,6 +10965,16 @@
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -44971,7 +44981,7 @@
   <dimension ref="A1:AH958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
@@ -45248,10 +45258,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -46997,8 +47007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBAA89-057F-4D2B-9FD7-B9BCC238CF01}">
   <dimension ref="A1:Z974"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
@@ -47474,10 +47484,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1ED62-1CE4-40D7-89FC-603DED9B052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9EBD8-D14D-43F0-89D5-0A60867D5A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -364,6 +364,9 @@
   <si>
     <t>Daily Capacity Charge per MVA (£)</t>
   </si>
+  <si>
+    <t>To account for any losses between metering point and electrolyser</t>
+  </si>
 </sst>
 </file>
 
@@ -642,7 +645,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -726,6 +729,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10553,8 +10562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBA260-5F35-4402-8789-C2ABB030CA84}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
@@ -10591,12 +10600,15 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.2" customHeight="1">
+    <row r="4" spans="1:3" ht="27.6" customHeight="1">
       <c r="A4" s="51" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="57">
-        <v>0.9597</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.2" customHeight="1">
@@ -10631,7 +10643,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="54">
-        <v>0.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.2" customHeight="1">
@@ -10949,7 +10961,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10968,12 +10980,12 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="A3" s="60">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="A4" s="60">
         <v>6</v>
       </c>
     </row>
@@ -44981,7 +44993,7 @@
   <dimension ref="A1:AH958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
@@ -45261,7 +45273,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -47007,7 +47019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBAA89-057F-4D2B-9FD7-B9BCC238CF01}">
   <dimension ref="A1:Z974"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -47484,10 +47496,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9EBD8-D14D-43F0-89D5-0A60867D5A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB27A7B2-649B-40A1-8829-B187BD94D234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -645,7 +645,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -729,9 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10562,8 +10559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBA260-5F35-4402-8789-C2ABB030CA84}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
@@ -10607,7 +10604,7 @@
       <c r="B4" s="57">
         <v>1</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10643,7 +10640,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.2" customHeight="1">
@@ -10666,8 +10663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A8463-2B96-461E-9F1D-83F4C3412B20}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10958,10 +10955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341079D9-CD85-48E1-85A0-DFB17399170D}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10977,16 +10974,6 @@
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="60">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -44993,7 +44980,7 @@
   <dimension ref="A1:AH958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
@@ -45270,10 +45257,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -47496,10 +47483,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB27A7B2-649B-40A1-8829-B187BD94D234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F6345C-205C-4DFA-8075-B0896F392C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>Simplify Efficiencies to Five Points</t>
   </si>
   <si>
-    <t>Capital Cost Baseline Year</t>
-  </si>
-  <si>
     <t>Capital Cost Price Year</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>Combined Electricity Price Inflation</t>
-  </si>
-  <si>
-    <t>The year for which the capital costs are estimated</t>
   </si>
   <si>
     <t>The price year for which the capital costs are quoted</t>
@@ -366,6 +360,12 @@
   </si>
   <si>
     <t>To account for any losses between metering point and electrolyser</t>
+  </si>
+  <si>
+    <t>Component Delivery Year</t>
+  </si>
+  <si>
+    <t>The input capital costs must relate to delivery in this year</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
@@ -1087,46 +1087,46 @@
     </row>
     <row r="2" spans="1:3" ht="19.2" customHeight="1">
       <c r="A2" s="51" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B2" s="52">
         <v>2025</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.2" customHeight="1">
       <c r="A3" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="52">
         <v>2023</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.2" customHeight="1">
       <c r="A4" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="52">
         <v>2022</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.2" customHeight="1">
       <c r="A5" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="55">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19.2" customHeight="1">
@@ -1166,7 +1166,7 @@
     </row>
     <row r="10" spans="1:3" ht="19.2" customHeight="1">
       <c r="A10" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="52">
         <v>46.1</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="11" spans="1:3" ht="19.2" customHeight="1">
       <c r="A11" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="52">
         <v>569</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="15" spans="1:3" ht="19.2" customHeight="1">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="52">
         <v>0.62</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="16" spans="1:3" ht="19.2" customHeight="1">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="52">
         <v>4.46</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="17" spans="1:3" ht="19.2" customHeight="1">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="52">
         <v>0.39</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="18" spans="1:3" ht="19.2" customHeight="1">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="52">
         <v>0.16</v>
@@ -1238,14 +1238,14 @@
     </row>
     <row r="19" spans="1:3" ht="19.2" customHeight="1">
       <c r="A19" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="59">
         <f>SUM(B15:B18)</f>
         <v>5.63</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -10560,7 +10560,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.2" customHeight="1">
@@ -10663,7 +10663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A8463-2B96-461E-9F1D-83F4C3412B20}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -47007,7 +47007,7 @@
   <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
@@ -47483,10 +47483,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>
@@ -48500,7 +48500,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F6345C-205C-4DFA-8075-B0896F392C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DADA047-E88F-4D36-92C6-FAF183072E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -1067,14 +1067,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="52"/>
-    <col min="3" max="3" width="135.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="52"/>
+    <col min="3" max="3" width="135.42578125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.2" customHeight="1">
+    <row r="1" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>68</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.2" customHeight="1">
+    <row r="2" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>99</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.2" customHeight="1">
+    <row r="3" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A3" s="51" t="s">
         <v>84</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.2" customHeight="1">
+    <row r="4" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="51" t="s">
         <v>85</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.2" customHeight="1">
+    <row r="5" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>86</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.2" customHeight="1">
+    <row r="6" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A6" s="51" t="s">
         <v>63</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.2" customHeight="1">
+    <row r="7" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>64</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.2" customHeight="1">
+    <row r="8" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A8" s="51" t="s">
         <v>65</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.2" customHeight="1">
+    <row r="9" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="51" t="s">
         <v>66</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.2" customHeight="1">
+    <row r="10" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A10" s="51" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.2" customHeight="1">
+    <row r="11" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A11" s="51" t="s">
         <v>96</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.2" customHeight="1">
+    <row r="12" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A12" s="51" t="s">
         <v>72</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>601.76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.2" customHeight="1">
+    <row r="13" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A13" s="51" t="s">
         <v>73</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.2" customHeight="1">
+    <row r="14" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="51" t="s">
         <v>74</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.2" customHeight="1">
+    <row r="15" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.2" customHeight="1">
+    <row r="16" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.2" customHeight="1">
+    <row r="17" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.2" customHeight="1">
+    <row r="18" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.2" customHeight="1">
+    <row r="19" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="58" t="s">
         <v>94</v>
       </c>
@@ -1265,15 +1265,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.5546875" style="5"/>
+    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -5672,14 +5672,14 @@
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="5"/>
+    <col min="1" max="1" width="12.5703125" style="5"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="5"/>
-    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.5546875" style="5"/>
+    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5"/>
+    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -9858,14 +9858,14 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5546875" style="5"/>
+    <col min="4" max="4" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -10559,18 +10559,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBA260-5F35-4402-8789-C2ABB030CA84}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="54"/>
-    <col min="3" max="3" width="31.21875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="54"/>
+    <col min="3" max="3" width="31.28515625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.2" customHeight="1">
+    <row r="1" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>68</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.2" customHeight="1">
+    <row r="2" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>75</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.2" customHeight="1">
+    <row r="3" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>76</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.2" customHeight="1">
+    <row r="5" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.2" customHeight="1">
+    <row r="6" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A6" s="51" t="s">
         <v>79</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.2" customHeight="1">
+    <row r="7" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
@@ -10635,15 +10635,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.2" customHeight="1">
+    <row r="8" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A8" s="51" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.2" customHeight="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="51" t="s">
         <v>83</v>
       </c>
@@ -10667,12 +10667,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10961,9 +10961,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -10989,7 +10989,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:74">
       <c r="A1" s="18" t="s">
@@ -25964,7 +25964,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:74">
       <c r="A1" s="18" t="s">
@@ -44983,21 +44983,21 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5546875" customWidth="1"/>
-    <col min="16" max="34" width="26.44140625" customWidth="1"/>
+    <col min="13" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="16" max="34" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1">
@@ -47010,20 +47010,20 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -48500,23 +48500,23 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="5"/>
-    <col min="7" max="7" width="31.21875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="12.5546875" style="5"/>
+    <col min="6" max="6" width="12.5703125" style="5"/>
+    <col min="7" max="7" width="31.28515625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="35" t="s">
         <v>36</v>
       </c>
@@ -48539,7 +48539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>0.1</v>
       </c>
@@ -48562,7 +48562,7 @@
         <v>0.7256999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>0.2</v>
       </c>
@@ -48585,7 +48585,7 @@
         <v>0.77359999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>0.3</v>
       </c>
@@ -48608,7 +48608,7 @@
         <v>0.78930000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>0.4</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>0.79390000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>0.5</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>0.78930000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>0.6</v>
       </c>
@@ -48677,7 +48677,7 @@
         <v>0.77839999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>0.7</v>
       </c>
@@ -48700,7 +48700,7 @@
         <v>0.76659999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>0.8</v>
       </c>
@@ -48723,7 +48723,7 @@
         <v>0.75450000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>0.9</v>
       </c>
@@ -48746,7 +48746,7 @@
         <v>0.74219999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>1</v>
       </c>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DADA047-E88F-4D36-92C6-FAF183072E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D150FD-553B-4226-B4CD-86B54C64F8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
@@ -10560,7 +10560,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1"/>
@@ -10640,7 +10640,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="54">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.149999999999999" customHeight="1">
@@ -44980,7 +44980,7 @@
   <dimension ref="A1:AH958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -45257,10 +45257,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -47007,7 +47007,7 @@
   <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -47486,7 +47486,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D150FD-553B-4226-B4CD-86B54C64F8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EBE375-B3A3-495E-BFD4-CBF652E5BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -10560,7 +10560,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1"/>
@@ -10640,7 +10640,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="54">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.149999999999999" customHeight="1">
@@ -44980,7 +44980,7 @@
   <dimension ref="A1:AH958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -45260,7 +45260,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
@@ -47007,7 +47007,7 @@
   <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -47486,7 +47486,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>

--- a/inputs/component_inputs.xlsx
+++ b/inputs/component_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyoung\Documents\GitHub\hydrogen-optimisation-research\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EBE375-B3A3-495E-BFD4-CBF652E5BBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F998BFD3-3255-4047-923F-F907C1C84562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{87E1AC9F-C52D-46BE-BFA9-EAAC32F5E6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Economic Inputs" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>The input capital costs must relate to delivery in this year</t>
+  </si>
+  <si>
+    <t>If run in batch mode, the N best setups will have their detailed results downloaded. N is equal to the value given here.</t>
+  </si>
+  <si>
+    <t>Number of Batch Setups to Download</t>
   </si>
 </sst>
 </file>
@@ -1067,14 +1073,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="52"/>
-    <col min="3" max="3" width="135.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="52"/>
+    <col min="3" max="3" width="135.44140625" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:3" ht="19.2" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>68</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:3" ht="19.2" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>99</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="3" spans="1:3" ht="19.2" customHeight="1">
       <c r="A3" s="51" t="s">
         <v>84</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="4" spans="1:3" ht="19.2" customHeight="1">
       <c r="A4" s="51" t="s">
         <v>85</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="5" spans="1:3" ht="19.2" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>86</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="6" spans="1:3" ht="19.2" customHeight="1">
       <c r="A6" s="51" t="s">
         <v>63</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="7" spans="1:3" ht="19.2" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>64</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="8" spans="1:3" ht="19.2" customHeight="1">
       <c r="A8" s="51" t="s">
         <v>65</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="9" spans="1:3" ht="19.2" customHeight="1">
       <c r="A9" s="51" t="s">
         <v>66</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="10" spans="1:3" ht="19.2" customHeight="1">
       <c r="A10" s="51" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="11" spans="1:3" ht="19.2" customHeight="1">
       <c r="A11" s="51" t="s">
         <v>96</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="12" spans="1:3" ht="19.2" customHeight="1">
       <c r="A12" s="51" t="s">
         <v>72</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>601.76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="13" spans="1:3" ht="19.2" customHeight="1">
       <c r="A13" s="51" t="s">
         <v>73</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="14" spans="1:3" ht="19.2" customHeight="1">
       <c r="A14" s="51" t="s">
         <v>74</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="15" spans="1:3" ht="19.2" customHeight="1">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="16" spans="1:3" ht="19.2" customHeight="1">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="17" spans="1:3" ht="19.2" customHeight="1">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="18" spans="1:3" ht="19.2" customHeight="1">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="19" spans="1:3" ht="19.2" customHeight="1">
       <c r="A19" s="58" t="s">
         <v>94</v>
       </c>
@@ -1265,15 +1271,15 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.5703125" style="5"/>
+    <col min="5" max="5" width="14.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -5672,14 +5678,14 @@
       <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="5"/>
+    <col min="1" max="1" width="12.5546875" style="5"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="5"/>
-    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="5"/>
+    <col min="3" max="3" width="22.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="5"/>
+    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="12.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -9858,14 +9864,14 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="5"/>
+    <col min="4" max="4" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -10557,20 +10563,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EBA260-5F35-4402-8789-C2ABB030CA84}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="54"/>
-    <col min="3" max="3" width="31.28515625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="54"/>
+    <col min="3" max="3" width="37.6640625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="1" spans="1:3" ht="19.2" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>68</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="2" spans="1:3" ht="19.2" customHeight="1">
       <c r="A2" s="51" t="s">
         <v>75</v>
       </c>
@@ -10589,7 +10595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="3" spans="1:3" ht="19.2" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>76</v>
       </c>
@@ -10608,7 +10614,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="5" spans="1:3" ht="19.2" customHeight="1">
       <c r="A5" s="51" t="s">
         <v>78</v>
       </c>
@@ -10616,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="6" spans="1:3" ht="19.2" customHeight="1">
       <c r="A6" s="51" t="s">
         <v>79</v>
       </c>
@@ -10624,7 +10630,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="7" spans="1:3" ht="19.2" customHeight="1">
       <c r="A7" s="51" t="s">
         <v>80</v>
       </c>
@@ -10635,7 +10641,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="8" spans="1:3" ht="19.2" customHeight="1">
       <c r="A8" s="51" t="s">
         <v>82</v>
       </c>
@@ -10643,7 +10649,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.149999999999999" customHeight="1">
+    <row r="9" spans="1:3" ht="19.2" customHeight="1">
       <c r="A9" s="51" t="s">
         <v>83</v>
       </c>
@@ -10652,6 +10658,17 @@
       </c>
       <c r="C9" s="52" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2">
+      <c r="A10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="52">
+        <v>5</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -10663,16 +10680,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A8463-2B96-461E-9F1D-83F4C3412B20}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10805,7 +10822,7 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E8">
         <v>2032</v>
@@ -10822,7 +10839,7 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E9">
         <v>2033</v>
@@ -10839,7 +10856,7 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E10">
         <v>2034</v>
@@ -10856,7 +10873,7 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E11">
         <v>2035</v>
@@ -10873,7 +10890,7 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E12">
         <v>2036</v>
@@ -10890,7 +10907,7 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E13">
         <v>2037</v>
@@ -10907,7 +10924,7 @@
         <v>50</v>
       </c>
       <c r="D14">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E14">
         <v>2038</v>
@@ -10924,7 +10941,7 @@
         <v>50</v>
       </c>
       <c r="D15">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E15">
         <v>2039</v>
@@ -10941,7 +10958,7 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="E16">
         <v>2040</v>
@@ -10961,9 +10978,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -10989,7 +11006,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:74">
       <c r="A1" s="18" t="s">
@@ -25964,7 +25981,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:74">
       <c r="A1" s="18" t="s">
@@ -44983,21 +45000,21 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
-    <col min="16" max="34" width="26.42578125" customWidth="1"/>
+    <col min="13" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" customWidth="1"/>
+    <col min="16" max="34" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1">
@@ -47007,23 +47024,23 @@
   <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -47486,7 +47503,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>
@@ -48504,19 +48521,19 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="5"/>
-    <col min="7" max="7" width="31.28515625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="5"/>
+    <col min="6" max="6" width="12.5546875" style="5"/>
+    <col min="7" max="7" width="31.33203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="12.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.8">
       <c r="A1" s="35" t="s">
         <v>36</v>
       </c>
@@ -48539,7 +48556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="4">
         <v>0.1</v>
       </c>
@@ -48562,7 +48579,7 @@
         <v>0.7256999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="4">
         <v>0.2</v>
       </c>
@@ -48585,7 +48602,7 @@
         <v>0.77359999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.4">
       <c r="A4" s="4">
         <v>0.3</v>
       </c>
@@ -48608,7 +48625,7 @@
         <v>0.78930000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.4">
       <c r="A5" s="4">
         <v>0.4</v>
       </c>
@@ -48631,7 +48648,7 @@
         <v>0.79390000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="4">
         <v>0.5</v>
       </c>
@@ -48654,7 +48671,7 @@
         <v>0.78930000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="4">
         <v>0.6</v>
       </c>
@@ -48677,7 +48694,7 @@
         <v>0.77839999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="14.4">
       <c r="A8" s="4">
         <v>0.7</v>
       </c>
@@ -48700,7 +48717,7 @@
         <v>0.76659999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="14.4">
       <c r="A9" s="4">
         <v>0.8</v>
       </c>
@@ -48723,7 +48740,7 @@
         <v>0.75450000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.4">
       <c r="A10" s="4">
         <v>0.9</v>
       </c>
@@ -48746,7 +48763,7 @@
         <v>0.74219999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="14.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
